--- a/dados/predicaoN.xlsx
+++ b/dados/predicaoN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deoclecio\Documents\Cena\Cursos_Extensao_CENA\ADR\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027587E-59CE-434B-92A7-0E5DBE2EB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE87A6BF-3EF8-46B6-90AD-0234DD9FD259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="A1:A119 E1:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,1380 +455,1380 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>0.63369133333333327</v>
+        <v>0.21413000000000001</v>
       </c>
       <c r="B2" s="4">
-        <v>4.87</v>
-      </c>
-      <c r="C2" s="2">
-        <v>201</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <v>75</v>
       </c>
       <c r="D2" s="4">
-        <v>8.3378033116358274</v>
+        <v>3.1683435924377137</v>
       </c>
       <c r="E2" s="3">
-        <v>29.9</v>
+        <v>5.7</v>
       </c>
       <c r="F2" s="1">
-        <v>741</v>
+        <v>523</v>
       </c>
       <c r="G2" s="1">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="H2" s="3">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>0.54466999999999999</v>
+        <v>0.229908</v>
       </c>
       <c r="B3" s="4">
-        <v>4.6633333333333331</v>
-      </c>
-      <c r="C3" s="2">
-        <v>226</v>
+        <v>5.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>88</v>
       </c>
       <c r="D3" s="4">
-        <v>6.382869814866881</v>
+        <v>2.6795282987355673</v>
       </c>
       <c r="E3" s="3">
-        <v>26.4</v>
+        <v>16.3</v>
       </c>
       <c r="F3" s="1">
-        <v>709</v>
+        <v>665</v>
       </c>
       <c r="G3" s="1">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H3" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>0.56575399999999998</v>
+        <v>0.23216200000000001</v>
       </c>
       <c r="B4" s="4">
-        <v>4.5533333333333337</v>
-      </c>
-      <c r="C4" s="2">
-        <v>214</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75</v>
       </c>
       <c r="D4" s="4">
-        <v>7.3676910426510851</v>
+        <v>3.1280247721297187</v>
       </c>
       <c r="E4" s="3">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="F4" s="1">
-        <v>763</v>
+        <v>543</v>
       </c>
       <c r="G4" s="1">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3">
-        <v>7.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>0.55169800000000002</v>
+        <v>0.23441600000000004</v>
       </c>
       <c r="B5" s="4">
-        <v>4.8166666666666664</v>
-      </c>
-      <c r="C5" s="2">
-        <v>226</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
       </c>
       <c r="D5" s="4">
-        <v>7.0795149679288105</v>
+        <v>2.6432010199544451</v>
       </c>
       <c r="E5" s="3">
-        <v>30.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F5" s="1">
-        <v>937</v>
+        <v>588</v>
       </c>
       <c r="G5" s="1">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="H5" s="3">
-        <v>6.1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>0.44862066666666661</v>
+        <v>0.24246599999999999</v>
       </c>
       <c r="B6" s="4">
-        <v>4.419999999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>226</v>
+        <v>5.2033333333333331</v>
+      </c>
+      <c r="C6" s="1">
+        <v>75</v>
       </c>
       <c r="D6" s="4">
-        <v>5.0911578344670083</v>
+        <v>3.4841786041557894</v>
       </c>
       <c r="E6" s="3">
-        <v>13.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F6" s="1">
-        <v>620</v>
+        <v>316</v>
       </c>
       <c r="G6" s="1">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>0.42519400000000002</v>
+        <v>0.24480866666666665</v>
       </c>
       <c r="B7" s="4">
-        <v>4.37</v>
-      </c>
-      <c r="C7" s="2">
-        <v>251</v>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="C7" s="1">
+        <v>75</v>
       </c>
       <c r="D7" s="4">
-        <v>4.3460271587941914</v>
+        <v>3.8626796366710283</v>
       </c>
       <c r="E7" s="3">
-        <v>15.8</v>
+        <v>13.9</v>
       </c>
       <c r="F7" s="1">
-        <v>597</v>
+        <v>410</v>
       </c>
       <c r="G7" s="1">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="H7" s="3">
-        <v>7.9</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>0.42050866666666664</v>
+        <v>0.24949399999999997</v>
       </c>
       <c r="B8" s="4">
-        <v>4.2666666666666666</v>
-      </c>
-      <c r="C8" s="2">
-        <v>251</v>
+        <v>5.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>75</v>
       </c>
       <c r="D8" s="4">
-        <v>5.6296480697861115</v>
+        <v>3.4035383919405735</v>
       </c>
       <c r="E8" s="3">
-        <v>16.3</v>
+        <v>18.2</v>
       </c>
       <c r="F8" s="1">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="G8" s="1">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="H8" s="3">
-        <v>9.3000000000000007</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>0.47204733333333332</v>
+        <v>0.25417933333333331</v>
       </c>
       <c r="B9" s="4">
-        <v>4.4533333333333331</v>
-      </c>
-      <c r="C9" s="2">
-        <v>251</v>
+        <v>5.1800000000000006</v>
+      </c>
+      <c r="C9" s="1">
+        <v>63</v>
       </c>
       <c r="D9" s="4">
-        <v>5.7082353793473732</v>
+        <v>3.9156093240887837</v>
       </c>
       <c r="E9" s="3">
-        <v>16.899999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="F9" s="1">
-        <v>811</v>
+        <v>462</v>
       </c>
       <c r="G9" s="1">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="H9" s="3">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>0.56575400000000009</v>
+        <v>0.25417933333333331</v>
       </c>
       <c r="B10" s="4">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="C10" s="2">
-        <v>188</v>
+        <v>5.0733333333333333</v>
+      </c>
+      <c r="C10" s="1">
+        <v>75</v>
       </c>
       <c r="D10" s="4">
-        <v>6.6966731121574119</v>
+        <v>4.0828271576237825</v>
       </c>
       <c r="E10" s="3">
-        <v>23.1</v>
+        <v>5.7</v>
       </c>
       <c r="F10" s="1">
-        <v>636</v>
+        <v>415</v>
       </c>
       <c r="G10" s="1">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
-        <v>4.5999999999999996</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>0.5001593333333334</v>
+        <v>0.25652199999999997</v>
       </c>
       <c r="B11" s="4">
-        <v>4.8133333333333326</v>
-      </c>
-      <c r="C11" s="2">
-        <v>176</v>
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
       </c>
       <c r="D11" s="4">
-        <v>6.538026336402079</v>
+        <v>4.167154189626439</v>
       </c>
       <c r="E11" s="3">
-        <v>25.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F11" s="1">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="G11" s="1">
-        <v>480</v>
+        <v>140</v>
       </c>
       <c r="H11" s="3">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>0.41113799999999995</v>
+        <v>0.25652199999999997</v>
       </c>
       <c r="B12" s="4">
-        <v>4.9066666666666672</v>
-      </c>
-      <c r="C12" s="2">
-        <v>126</v>
+        <v>5.0933333333333337</v>
+      </c>
+      <c r="C12" s="1">
+        <v>75</v>
       </c>
       <c r="D12" s="4">
-        <v>5.8294697528730985</v>
+        <v>3.9192886820741224</v>
       </c>
       <c r="E12" s="3">
-        <v>16.600000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F12" s="1">
-        <v>597</v>
+        <v>402</v>
       </c>
       <c r="G12" s="1">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>0.40879533333333334</v>
+        <v>0.25695600000000002</v>
       </c>
       <c r="B13" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="C13" s="2">
-        <v>126</v>
+        <v>5.0766666666666662</v>
+      </c>
+      <c r="C13" s="1">
+        <v>63</v>
       </c>
       <c r="D13" s="4">
-        <v>7.0721012405086041</v>
+        <v>3.9532089917349982</v>
       </c>
       <c r="E13" s="3">
-        <v>31.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F13" s="1">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="G13" s="1">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="H13" s="3">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>0.48844599999999999</v>
+        <v>0.25921</v>
       </c>
       <c r="B14" s="4">
-        <v>4.8066666666666658</v>
-      </c>
-      <c r="C14" s="2">
-        <v>201</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50</v>
       </c>
       <c r="D14" s="4">
-        <v>5.0436274032959494</v>
+        <v>3.8134016974563636</v>
       </c>
       <c r="E14" s="3">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1">
-        <v>842</v>
+        <v>416</v>
       </c>
       <c r="G14" s="1">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="H14" s="3">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>0.41582333333333327</v>
+        <v>0.26146399999999997</v>
       </c>
       <c r="B15" s="4">
-        <v>4.8666666666666671</v>
-      </c>
-      <c r="C15" s="2">
-        <v>201</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>63</v>
       </c>
       <c r="D15" s="4">
-        <v>5.3243517204784823</v>
+        <v>3.6583500170409295</v>
       </c>
       <c r="E15" s="3">
-        <v>19.899999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="F15" s="1">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="G15" s="1">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>10.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>0.35725666666666661</v>
+        <v>0.26354999999999995</v>
       </c>
       <c r="B16" s="4">
-        <v>4.8199999999999994</v>
-      </c>
-      <c r="C16" s="2">
-        <v>151</v>
+        <v>5.1533333333333333</v>
+      </c>
+      <c r="C16" s="1">
+        <v>75</v>
       </c>
       <c r="D16" s="4">
-        <v>5.0475039171015279</v>
+        <v>3.7436962618573486</v>
       </c>
       <c r="E16" s="3">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="F16" s="1">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="G16" s="1">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>0.36428466666666665</v>
+        <v>0.26822600000000002</v>
       </c>
       <c r="B17" s="4">
-        <v>4.8566666666666665</v>
-      </c>
-      <c r="C17" s="2">
-        <v>151</v>
+        <v>5.4000000000000012</v>
+      </c>
+      <c r="C17" s="1">
+        <v>201</v>
       </c>
       <c r="D17" s="4">
-        <v>5.1784956045819346</v>
+        <v>3.9332421296280726</v>
       </c>
       <c r="E17" s="3">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="F17" s="1">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G17" s="1">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="H17" s="3">
-        <v>5.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>0.60557933333333336</v>
+        <v>0.30541699999999999</v>
       </c>
       <c r="B18" s="4">
-        <v>4.5633333333333335</v>
+        <v>4.3166666666666664</v>
       </c>
       <c r="C18" s="1">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4">
-        <v>6.6966731121574119</v>
+        <v>3.3169211717422638</v>
       </c>
       <c r="E18" s="3">
-        <v>31.8</v>
+        <v>23.9</v>
       </c>
       <c r="F18" s="1">
-        <v>1244</v>
+        <v>907</v>
       </c>
       <c r="G18" s="1">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="H18" s="3">
-        <v>2.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>0.57512466666666662</v>
+        <v>0.30767099999999997</v>
       </c>
       <c r="B19" s="4">
-        <v>4.333333333333333</v>
+        <v>4.1133333333333333</v>
       </c>
       <c r="C19" s="1">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="D19" s="4">
-        <v>6.538026336402079</v>
+        <v>3.5389294528939432</v>
       </c>
       <c r="E19" s="3">
-        <v>27.5</v>
+        <v>23.9</v>
       </c>
       <c r="F19" s="1">
-        <v>1157</v>
+        <v>927</v>
       </c>
       <c r="G19" s="1">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="H19" s="3">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>0.56341133333333338</v>
+        <v>0.31217899999999998</v>
       </c>
       <c r="B20" s="4">
-        <v>4.4400000000000004</v>
+        <v>4.2166666666666659</v>
       </c>
       <c r="C20" s="1">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D20" s="4">
-        <v>5.8294697528730985</v>
+        <v>2.6831352383493119</v>
       </c>
       <c r="E20" s="3">
-        <v>31.3</v>
+        <v>11.4</v>
       </c>
       <c r="F20" s="1">
-        <v>1169</v>
+        <v>502</v>
       </c>
       <c r="G20" s="1">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="H20" s="3">
-        <v>2.6</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>0.65946066666666681</v>
+        <v>0.31443299999999996</v>
       </c>
       <c r="B21" s="4">
-        <v>4.7166666666666668</v>
+        <v>3.936666666666667</v>
       </c>
       <c r="C21" s="1">
         <v>201</v>
       </c>
       <c r="D21" s="4">
-        <v>7.0721012405086041</v>
+        <v>2.9194434517005927</v>
       </c>
       <c r="E21" s="3">
-        <v>35.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F21" s="1">
-        <v>1390</v>
+        <v>648</v>
       </c>
       <c r="G21" s="1">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="H21" s="3">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>0.49313133333333331</v>
+        <v>0.316687</v>
       </c>
       <c r="B22" s="4">
-        <v>3.9933333333333336</v>
+        <v>4.55</v>
       </c>
       <c r="C22" s="1">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4">
-        <v>5.0436274032959494</v>
+        <v>3.6347142343919931</v>
       </c>
       <c r="E22" s="3">
-        <v>10.3</v>
+        <v>28.6</v>
       </c>
       <c r="F22" s="1">
-        <v>840</v>
+        <v>1041</v>
       </c>
       <c r="G22" s="1">
-        <v>335</v>
+        <v>510</v>
       </c>
       <c r="H22" s="3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>0.49313133333333331</v>
+        <v>0.327957</v>
       </c>
       <c r="B23" s="4">
-        <v>4.0066666666666668</v>
+        <v>4.5566666666666666</v>
       </c>
       <c r="C23" s="1">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="D23" s="4">
-        <v>5.3243517204784823</v>
+        <v>3.2154890731204304</v>
       </c>
       <c r="E23" s="3">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>885</v>
+        <v>821</v>
       </c>
       <c r="G23" s="1">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="H23" s="3">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>0.49313133333333331</v>
+        <v>0.33697299999999997</v>
       </c>
       <c r="B24" s="4">
-        <v>4.03</v>
+        <v>4.0066666666666668</v>
       </c>
       <c r="C24" s="1">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="D24" s="4">
-        <v>5.0475039171015279</v>
+        <v>3.3666583381849127</v>
       </c>
       <c r="E24" s="3">
-        <v>20.399999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="F24" s="1">
-        <v>945</v>
+        <v>861</v>
       </c>
       <c r="G24" s="1">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="H24" s="3">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>0.53764199999999995</v>
+        <v>0.34035400000000005</v>
       </c>
       <c r="B25" s="4">
-        <v>4.4366666666666665</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="C25" s="1">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="D25" s="4">
-        <v>5.1784956045819346</v>
+        <v>3.7417887129795657</v>
       </c>
       <c r="E25" s="3">
-        <v>17.100000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="F25" s="1">
-        <v>941</v>
+        <v>897</v>
       </c>
       <c r="G25" s="1">
-        <v>520</v>
+        <v>230</v>
       </c>
       <c r="H25" s="3">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>1.0225739999999999</v>
+        <v>0.35275100000000004</v>
       </c>
       <c r="B26" s="4">
-        <v>4.376666666666666</v>
+        <v>4.09</v>
       </c>
       <c r="C26" s="1">
-        <v>489</v>
+        <v>201</v>
       </c>
       <c r="D26" s="4">
-        <v>13.386275943289942</v>
+        <v>3.6677797590544401</v>
       </c>
       <c r="E26" s="3">
-        <v>72.599999999999994</v>
+        <v>23.7</v>
       </c>
       <c r="F26" s="1">
-        <v>1365</v>
+        <v>835</v>
       </c>
       <c r="G26" s="1">
-        <v>510</v>
+        <v>210</v>
       </c>
       <c r="H26" s="3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>0.99680466666666667</v>
+        <v>0.35275100000000004</v>
       </c>
       <c r="B27" s="4">
-        <v>4.4633333333333338</v>
+        <v>4.0333333333333341</v>
       </c>
       <c r="C27" s="1">
-        <v>527</v>
+        <v>226</v>
       </c>
       <c r="D27" s="4">
-        <v>13.387587480490225</v>
+        <v>3.4997424697880781</v>
       </c>
       <c r="E27" s="3">
-        <v>41.9</v>
+        <v>20.9</v>
       </c>
       <c r="F27" s="1">
-        <v>1190</v>
+        <v>865</v>
       </c>
       <c r="G27" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="H27" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>1.0553713333333332</v>
+        <v>0.35725666666666661</v>
       </c>
       <c r="B28" s="4">
-        <v>4.5533333333333337</v>
-      </c>
-      <c r="C28" s="1">
-        <v>477</v>
+        <v>4.8199999999999994</v>
+      </c>
+      <c r="C28" s="2">
+        <v>151</v>
       </c>
       <c r="D28" s="4">
-        <v>13.830054190569221</v>
+        <v>5.0475039171015279</v>
       </c>
       <c r="E28" s="3">
-        <v>55.8</v>
+        <v>11.2</v>
       </c>
       <c r="F28" s="1">
-        <v>1409</v>
+        <v>332</v>
       </c>
       <c r="G28" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="H28" s="3">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>1.057714</v>
+        <v>0.36176700000000001</v>
       </c>
       <c r="B29" s="4">
-        <v>4.496666666666667</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="C29" s="1">
-        <v>476</v>
+        <v>226</v>
       </c>
       <c r="D29" s="4">
-        <v>12.820459322502467</v>
+        <v>3.8120669457076009</v>
       </c>
       <c r="E29" s="3">
-        <v>53.9</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1">
-        <v>1294</v>
+        <v>622</v>
       </c>
       <c r="G29" s="1">
-        <v>510</v>
+        <v>220</v>
       </c>
       <c r="H29" s="3">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>0.93120999999999998</v>
+        <v>0.36428466666666665</v>
       </c>
       <c r="B30" s="4">
-        <v>4.1566666666666663</v>
-      </c>
-      <c r="C30" s="1">
-        <v>552</v>
+        <v>4.8566666666666665</v>
+      </c>
+      <c r="C30" s="2">
+        <v>151</v>
       </c>
       <c r="D30" s="4">
-        <v>9.3860378875772135</v>
+        <v>5.1784956045819346</v>
       </c>
       <c r="E30" s="3">
-        <v>16.3</v>
+        <v>11.7</v>
       </c>
       <c r="F30" s="1">
-        <v>1026</v>
+        <v>446</v>
       </c>
       <c r="G30" s="1">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="H30" s="3">
-        <v>4.5999999999999996</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>0.92652466666666655</v>
+        <v>0.36627499999999996</v>
       </c>
       <c r="B31" s="4">
-        <v>4.1366666666666667</v>
+        <v>5.1833333333333336</v>
       </c>
       <c r="C31" s="1">
-        <v>577</v>
+        <v>151</v>
       </c>
       <c r="D31" s="4">
-        <v>9.9869503608176267</v>
+        <v>4.5343223006018079</v>
       </c>
       <c r="E31" s="3">
         <v>15.8</v>
       </c>
       <c r="F31" s="1">
-        <v>827</v>
+        <v>957</v>
       </c>
       <c r="G31" s="1">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="H31" s="3">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>0.93120999999999976</v>
+        <v>0.36627500000000007</v>
       </c>
       <c r="B32" s="4">
-        <v>4.1866666666666674</v>
+        <v>5.2566666666666668</v>
       </c>
       <c r="C32" s="1">
-        <v>552</v>
+        <v>151</v>
       </c>
       <c r="D32" s="4">
-        <v>10.258430029037267</v>
+        <v>4.0733224034098416</v>
       </c>
       <c r="E32" s="3">
-        <v>47.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F32" s="1">
-        <v>1192</v>
+        <v>596</v>
       </c>
       <c r="G32" s="1">
-        <v>760</v>
+        <v>270</v>
       </c>
       <c r="H32" s="3">
-        <v>5.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>0.96166466666666661</v>
+        <v>0.36740200000000001</v>
       </c>
       <c r="B33" s="4">
-        <v>4.126666666666666</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>526</v>
+        <v>175</v>
       </c>
       <c r="D33" s="4">
-        <v>10.051294438180488</v>
+        <v>4.282043608273101</v>
       </c>
       <c r="E33" s="3">
-        <v>28.8</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>1049</v>
+        <v>838</v>
       </c>
       <c r="G33" s="1">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>1.4700233333333335</v>
+        <v>0.37867199999999995</v>
       </c>
       <c r="B34" s="4">
-        <v>4.7666666666666666</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="C34" s="1">
-        <v>553</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4">
-        <v>15.618773073473777</v>
+        <v>4.2861747064808675</v>
       </c>
       <c r="E34" s="3">
-        <v>37.299999999999997</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F34" s="1">
-        <v>984</v>
+        <v>498</v>
       </c>
       <c r="G34" s="1">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H34" s="3">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>1.1022246666666666</v>
+        <v>0.385434</v>
       </c>
       <c r="B35" s="4">
-        <v>4.6866666666666665</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="C35" s="1">
-        <v>628</v>
+        <v>226</v>
       </c>
       <c r="D35" s="4">
-        <v>12.946542754233196</v>
+        <v>4.2071102170361172</v>
       </c>
       <c r="E35" s="3">
-        <v>32.6</v>
+        <v>11.4</v>
       </c>
       <c r="F35" s="1">
-        <v>983</v>
+        <v>797</v>
       </c>
       <c r="G35" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H35" s="3">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>1.3271206666666664</v>
+        <v>0.385434</v>
       </c>
       <c r="B36" s="4">
-        <v>5.31</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="D36" s="4">
-        <v>14.555210526864094</v>
+        <v>4.5670471482689781</v>
       </c>
       <c r="E36" s="3">
         <v>18.5</v>
       </c>
       <c r="F36" s="1">
-        <v>1010</v>
+        <v>868</v>
       </c>
       <c r="G36" s="1">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>1.324778</v>
+        <v>0.39219599999999999</v>
       </c>
       <c r="B37" s="4">
-        <v>5.336666666666666</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="C37" s="1">
-        <v>528</v>
+        <v>253</v>
       </c>
       <c r="D37" s="4">
-        <v>14.961996938689666</v>
+        <v>4.5138400352542902</v>
       </c>
       <c r="E37" s="3">
-        <v>14.7</v>
+        <v>12.5</v>
       </c>
       <c r="F37" s="1">
-        <v>986</v>
+        <v>770</v>
       </c>
       <c r="G37" s="1">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H37" s="3">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>1.085826</v>
+        <v>0.39332300000000003</v>
       </c>
       <c r="B38" s="4">
-        <v>4.5366666666666662</v>
+        <v>5.1866666666666665</v>
       </c>
       <c r="C38" s="1">
-        <v>602</v>
+        <v>151</v>
       </c>
       <c r="D38" s="4">
-        <v>11.643339881761023</v>
+        <v>4.6094011590080424</v>
       </c>
       <c r="E38" s="3">
-        <v>13.1</v>
+        <v>30.5</v>
       </c>
       <c r="F38" s="1">
-        <v>669</v>
+        <v>1009</v>
       </c>
       <c r="G38" s="1">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="H38" s="3">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>0.83516066666666655</v>
+        <v>0.39783099999999999</v>
       </c>
       <c r="B39" s="4">
-        <v>4.543333333333333</v>
+        <v>4.7233333333333336</v>
       </c>
       <c r="C39" s="1">
-        <v>678</v>
+        <v>150</v>
       </c>
       <c r="D39" s="4">
-        <v>10.15224478076985</v>
+        <v>4.2940839191493172</v>
       </c>
       <c r="E39" s="3">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="F39" s="1">
-        <v>614</v>
+        <v>448</v>
       </c>
       <c r="G39" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H39" s="3">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>1.1233086666666665</v>
+        <v>0.39783099999999999</v>
       </c>
       <c r="B40" s="4">
-        <v>5.1533333333333333</v>
+        <v>5.1466666666666665</v>
       </c>
       <c r="C40" s="1">
-        <v>552</v>
+        <v>151</v>
       </c>
       <c r="D40" s="4">
-        <v>12.922171124892035</v>
+        <v>4.4922547347190411</v>
       </c>
       <c r="E40" s="3">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="F40" s="1">
-        <v>724</v>
+        <v>591</v>
       </c>
       <c r="G40" s="1">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H40" s="3">
-        <v>2.2999999999999998</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>1.2053020000000001</v>
+        <v>0.40008499999999997</v>
       </c>
       <c r="B41" s="4">
-        <v>5.0866666666666669</v>
+        <v>5.28</v>
       </c>
       <c r="C41" s="1">
-        <v>502</v>
+        <v>150</v>
       </c>
       <c r="D41" s="4">
-        <v>12.434811840679659</v>
+        <v>4.9115143277923288</v>
       </c>
       <c r="E41" s="3">
-        <v>20.9</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>754</v>
+        <v>1069</v>
       </c>
       <c r="G41" s="1">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="H41" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>0.25417933333333331</v>
+        <v>0.40459299999999998</v>
       </c>
       <c r="B42" s="4">
-        <v>5.1800000000000006</v>
+        <v>4.7233333333333336</v>
       </c>
       <c r="C42" s="1">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="D42" s="4">
-        <v>3.9156093240887837</v>
+        <v>4.1774626638975114</v>
       </c>
       <c r="E42" s="3">
-        <v>14.4</v>
+        <v>6.5</v>
       </c>
       <c r="F42" s="1">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="G42" s="1">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="H42" s="3">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>0.26354999999999995</v>
+        <v>0.40572000000000003</v>
       </c>
       <c r="B43" s="4">
-        <v>5.1533333333333333</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C43" s="1">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="D43" s="4">
-        <v>3.7436962618573486</v>
+        <v>4.2388426143703484</v>
       </c>
       <c r="E43" s="3">
-        <v>11.7</v>
+        <v>22.3</v>
       </c>
       <c r="F43" s="1">
-        <v>350</v>
+        <v>496</v>
       </c>
       <c r="G43" s="1">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H43" s="3">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>0.24949399999999997</v>
+        <v>0.40879533333333334</v>
       </c>
       <c r="B44" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>75</v>
+        <v>4.88</v>
+      </c>
+      <c r="C44" s="2">
+        <v>126</v>
       </c>
       <c r="D44" s="4">
-        <v>3.4035383919405735</v>
+        <v>7.0721012405086041</v>
       </c>
       <c r="E44" s="3">
-        <v>18.2</v>
+        <v>31.8</v>
       </c>
       <c r="F44" s="1">
-        <v>821</v>
+        <v>508</v>
       </c>
       <c r="G44" s="1">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="H44" s="3">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>0.25652199999999997</v>
+        <v>0.41113799999999995</v>
       </c>
       <c r="B45" s="4">
-        <v>5.2333333333333334</v>
-      </c>
-      <c r="C45" s="1">
-        <v>100</v>
+        <v>4.9066666666666672</v>
+      </c>
+      <c r="C45" s="2">
+        <v>126</v>
       </c>
       <c r="D45" s="4">
-        <v>4.167154189626439</v>
+        <v>5.8294697528730985</v>
       </c>
       <c r="E45" s="3">
-        <v>9.8000000000000007</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F45" s="1">
-        <v>481</v>
+        <v>597</v>
       </c>
       <c r="G45" s="1">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="H45" s="3">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>0.25652199999999997</v>
+        <v>0.41135499999999997</v>
       </c>
       <c r="B46" s="4">
-        <v>5.0933333333333337</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C46" s="1">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="D46" s="4">
-        <v>3.9192886820741224</v>
+        <v>4.1629075885391131</v>
       </c>
       <c r="E46" s="3">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="F46" s="1">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="G46" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H46" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>0.24246599999999999</v>
+        <v>0.41135499999999997</v>
       </c>
       <c r="B47" s="4">
-        <v>5.2033333333333331</v>
+        <v>4.66</v>
       </c>
       <c r="C47" s="1">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4">
-        <v>3.4841786041557894</v>
+        <v>3.9335168592702159</v>
       </c>
       <c r="E47" s="3">
-        <v>9.1999999999999993</v>
+        <v>24.5</v>
       </c>
       <c r="F47" s="1">
-        <v>316</v>
+        <v>941</v>
       </c>
       <c r="G47" s="1">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="H47" s="3">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>0.24480866666666665</v>
+        <v>0.41248200000000002</v>
       </c>
       <c r="B48" s="4">
-        <v>5.166666666666667</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C48" s="1">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D48" s="4">
-        <v>3.8626796366710283</v>
+        <v>4.2128251682311362</v>
       </c>
       <c r="E48" s="3">
-        <v>13.9</v>
+        <v>20.7</v>
       </c>
       <c r="F48" s="1">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="G48" s="1">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H48" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>0.25417933333333331</v>
+        <v>0.41582333333333327</v>
       </c>
       <c r="B49" s="4">
-        <v>5.0733333333333333</v>
-      </c>
-      <c r="C49" s="1">
-        <v>75</v>
+        <v>4.8666666666666671</v>
+      </c>
+      <c r="C49" s="2">
+        <v>201</v>
       </c>
       <c r="D49" s="4">
-        <v>4.0828271576237825</v>
+        <v>5.3243517204784823</v>
       </c>
       <c r="E49" s="3">
-        <v>5.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F49" s="1">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="G49" s="1">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="H49" s="3">
-        <v>1.2</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>0.57477</v>
+        <v>0.41698999999999997</v>
       </c>
       <c r="B50" s="4">
-        <v>4.4666666666666668</v>
+        <v>4.6333333333333337</v>
       </c>
       <c r="C50" s="1">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D50" s="4">
-        <v>6.7423249779433032</v>
+        <v>4.4461836160069748</v>
       </c>
       <c r="E50" s="3">
-        <v>7.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F50" s="1">
-        <v>874</v>
+        <v>801</v>
       </c>
       <c r="G50" s="1">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H50" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>0.57026200000000005</v>
+        <v>0.41924400000000001</v>
       </c>
       <c r="B51" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="C51" s="1">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D51" s="4">
-        <v>6.4736790119552001</v>
+        <v>4.3456718218035046</v>
       </c>
       <c r="E51" s="3">
-        <v>8.6999999999999993</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F51" s="1">
-        <v>733</v>
+        <v>536</v>
       </c>
       <c r="G51" s="1">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H51" s="3">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>0.58604000000000012</v>
+        <v>0.42050866666666664</v>
       </c>
       <c r="B52" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C52" s="1">
-        <v>201</v>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="C52" s="2">
+        <v>251</v>
       </c>
       <c r="D52" s="4">
-        <v>7.2786250567650583</v>
+        <v>5.6296480697861115</v>
       </c>
       <c r="E52" s="3">
-        <v>4.5999999999999996</v>
+        <v>16.3</v>
       </c>
       <c r="F52" s="1">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="G52" s="1">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="H52" s="3">
-        <v>1.7</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>0.58604000000000001</v>
+        <v>0.42519400000000002</v>
       </c>
       <c r="B53" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C53" s="1">
-        <v>252</v>
+        <v>4.37</v>
+      </c>
+      <c r="C53" s="2">
+        <v>251</v>
       </c>
       <c r="D53" s="4">
-        <v>6.2813140621961896</v>
+        <v>4.3460271587941914</v>
       </c>
       <c r="E53" s="3">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="F53" s="1">
-        <v>753</v>
+        <v>597</v>
       </c>
       <c r="G53" s="1">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="H53" s="3">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>0.43952999999999998</v>
+        <v>0.42600600000000005</v>
       </c>
       <c r="B54" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="C54" s="1">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="D54" s="4">
-        <v>4.6426334848193411</v>
+        <v>4.6777415445999448</v>
       </c>
       <c r="E54" s="3">
-        <v>10.6</v>
+        <v>16.3</v>
       </c>
       <c r="F54" s="1">
-        <v>696</v>
+        <v>492</v>
       </c>
       <c r="G54" s="1">
         <v>180</v>
       </c>
       <c r="H54" s="3">
-        <v>4.5999999999999996</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,262 +1859,262 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>0.39219599999999999</v>
+        <v>0.43614900000000006</v>
       </c>
       <c r="B56" s="4">
-        <v>4.0666666666666664</v>
+        <v>4.8133333333333335</v>
       </c>
       <c r="C56" s="1">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="D56" s="4">
-        <v>4.5138400352542902</v>
+        <v>4.6832691472218055</v>
       </c>
       <c r="E56" s="3">
-        <v>12.5</v>
+        <v>0.5</v>
       </c>
       <c r="F56" s="1">
-        <v>770</v>
+        <v>437</v>
       </c>
       <c r="G56" s="1">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H56" s="3">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>0.46432400000000001</v>
+        <v>0.43952999999999998</v>
       </c>
       <c r="B57" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="C57" s="1">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D57" s="4">
-        <v>5.5159805358668805</v>
+        <v>4.6426334848193411</v>
       </c>
       <c r="E57" s="3">
-        <v>1.4</v>
+        <v>10.6</v>
       </c>
       <c r="F57" s="1">
-        <v>583</v>
+        <v>696</v>
       </c>
       <c r="G57" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="H57" s="3">
-        <v>2</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>0.57026200000000005</v>
+        <v>0.44862066666666661</v>
       </c>
       <c r="B58" s="4">
-        <v>4.8</v>
+        <v>4.419999999999999</v>
       </c>
       <c r="C58" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D58" s="4">
-        <v>6.7565874106853299</v>
+        <v>5.0911578344670083</v>
       </c>
       <c r="E58" s="3">
-        <v>3.3</v>
+        <v>13.1</v>
       </c>
       <c r="F58" s="1">
-        <v>491</v>
+        <v>620</v>
       </c>
       <c r="G58" s="1">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="H58" s="3">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>0.58604000000000001</v>
+        <v>0.45305400000000001</v>
       </c>
       <c r="B59" s="4">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C59" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="D59" s="4">
-        <v>7.1260347137579689</v>
+        <v>5.2862126854886409</v>
       </c>
       <c r="E59" s="3">
-        <v>4.5999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="F59" s="1">
-        <v>806</v>
+        <v>1903</v>
       </c>
       <c r="G59" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H59" s="3">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>0.5635</v>
+        <v>0.45530799999999999</v>
       </c>
       <c r="B60" s="4">
-        <v>4.5</v>
+        <v>4.1333333333333329</v>
       </c>
       <c r="C60" s="2">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="D60" s="4">
-        <v>6.9213558530835861</v>
+        <v>5.3106539923561904</v>
       </c>
       <c r="E60" s="3">
-        <v>10.9</v>
+        <v>21.5</v>
       </c>
       <c r="F60" s="1">
-        <v>2417</v>
+        <v>1923</v>
       </c>
       <c r="G60" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H60" s="3">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>0.59731000000000012</v>
+        <v>0.46432400000000001</v>
       </c>
       <c r="B61" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="C61" s="2">
-        <v>227</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C61" s="1">
+        <v>280</v>
       </c>
       <c r="D61" s="4">
-        <v>6.8147145581941082</v>
+        <v>5.5159805358668805</v>
       </c>
       <c r="E61" s="3">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="F61" s="1">
-        <v>2302</v>
+        <v>583</v>
       </c>
       <c r="G61" s="1">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H61" s="3">
-        <v>3.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>0.45305400000000001</v>
+        <v>0.46657799999999999</v>
       </c>
       <c r="B62" s="4">
-        <v>4.2</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="C62" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D62" s="4">
-        <v>5.2862126854886409</v>
+        <v>5.3408714109363338</v>
       </c>
       <c r="E62" s="3">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="F62" s="1">
-        <v>1903</v>
+        <v>763</v>
       </c>
       <c r="G62" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H62" s="3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>0.48010200000000003</v>
+        <v>0.47204733333333332</v>
       </c>
       <c r="B63" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.4533333333333331</v>
       </c>
       <c r="C63" s="2">
         <v>251</v>
       </c>
       <c r="D63" s="4">
-        <v>5.5775546891688617</v>
+        <v>5.7082353793473732</v>
       </c>
       <c r="E63" s="3">
-        <v>12.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F63" s="1">
-        <v>1354</v>
+        <v>811</v>
       </c>
       <c r="G63" s="1">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="H63" s="3">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>0.45530799999999999</v>
+        <v>0.48010200000000003</v>
       </c>
       <c r="B64" s="4">
-        <v>4.1333333333333329</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C64" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D64" s="4">
-        <v>5.3106539923561904</v>
+        <v>5.5775546891688617</v>
       </c>
       <c r="E64" s="3">
-        <v>21.5</v>
+        <v>12.8</v>
       </c>
       <c r="F64" s="1">
-        <v>1923</v>
+        <v>1354</v>
       </c>
       <c r="G64" s="1">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H64" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>0.46657799999999999</v>
+        <v>0.48844599999999999</v>
       </c>
       <c r="B65" s="4">
-        <v>4.5333333333333332</v>
+        <v>4.8066666666666658</v>
       </c>
       <c r="C65" s="2">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="D65" s="4">
-        <v>5.3408714109363338</v>
+        <v>5.0436274032959494</v>
       </c>
       <c r="E65" s="3">
-        <v>1.4</v>
+        <v>12.2</v>
       </c>
       <c r="F65" s="1">
-        <v>763</v>
+        <v>842</v>
       </c>
       <c r="G65" s="1">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="H65" s="3">
-        <v>2.2000000000000002</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,129 +2145,129 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>0.50489600000000001</v>
+        <v>0.49313133333333331</v>
       </c>
       <c r="B67" s="4">
-        <v>4.8666666666666663</v>
+        <v>3.9933333333333336</v>
       </c>
       <c r="C67" s="1">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="D67" s="4">
-        <v>5.4768914829063995</v>
+        <v>5.0436274032959494</v>
       </c>
       <c r="E67" s="3">
-        <v>1.4</v>
+        <v>10.3</v>
       </c>
       <c r="F67" s="1">
-        <v>778</v>
+        <v>840</v>
       </c>
       <c r="G67" s="1">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="H67" s="3">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>0.50038800000000005</v>
+        <v>0.49313133333333331</v>
       </c>
       <c r="B68" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.0066666666666668</v>
       </c>
       <c r="C68" s="1">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="D68" s="4">
-        <v>4.9836261025763289</v>
+        <v>5.3243517204784823</v>
       </c>
       <c r="E68" s="3">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F68" s="1">
-        <v>535</v>
+        <v>885</v>
       </c>
       <c r="G68" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="H68" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>0.37867199999999995</v>
+        <v>0.49313133333333331</v>
       </c>
       <c r="B69" s="4">
-        <v>5.1000000000000005</v>
+        <v>4.03</v>
       </c>
       <c r="C69" s="1">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="D69" s="4">
-        <v>4.2861747064808675</v>
+        <v>5.0475039171015279</v>
       </c>
       <c r="E69" s="3">
-        <v>9.1999999999999993</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F69" s="1">
-        <v>498</v>
+        <v>945</v>
       </c>
       <c r="G69" s="1">
-        <v>130</v>
+        <v>445</v>
       </c>
       <c r="H69" s="3">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>0.385434</v>
+        <v>0.5001593333333334</v>
       </c>
       <c r="B70" s="4">
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="C70" s="1">
-        <v>226</v>
+        <v>4.8133333333333326</v>
+      </c>
+      <c r="C70" s="2">
+        <v>176</v>
       </c>
       <c r="D70" s="4">
-        <v>4.2071102170361172</v>
+        <v>6.538026336402079</v>
       </c>
       <c r="E70" s="3">
-        <v>11.4</v>
+        <v>25.3</v>
       </c>
       <c r="F70" s="1">
-        <v>797</v>
+        <v>517</v>
       </c>
       <c r="G70" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="H70" s="3">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>0.385434</v>
+        <v>0.50038800000000005</v>
       </c>
       <c r="B71" s="4">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C71" s="1">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4">
-        <v>4.5670471482689781</v>
+        <v>4.9836261025763289</v>
       </c>
       <c r="E71" s="3">
-        <v>18.5</v>
+        <v>13.9</v>
       </c>
       <c r="F71" s="1">
-        <v>868</v>
+        <v>535</v>
       </c>
       <c r="G71" s="1">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="H71" s="3">
         <v>4.5</v>
@@ -2275,649 +2275,649 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>0.36740200000000001</v>
+        <v>0.50489600000000001</v>
       </c>
       <c r="B72" s="4">
-        <v>5</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="C72" s="1">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D72" s="4">
-        <v>4.282043608273101</v>
+        <v>5.4768914829063995</v>
       </c>
       <c r="E72" s="3">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="F72" s="1">
-        <v>838</v>
+        <v>778</v>
       </c>
       <c r="G72" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H72" s="3">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>0.34035400000000005</v>
+        <v>0.53757899999999992</v>
       </c>
       <c r="B73" s="4">
-        <v>5.0666666666666664</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C73" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="4">
-        <v>3.7417887129795657</v>
+        <v>5.8405136390692141</v>
       </c>
       <c r="E73" s="3">
-        <v>25.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F73" s="1">
-        <v>897</v>
+        <v>607</v>
       </c>
       <c r="G73" s="1">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="H73" s="3">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>0.55786499999999994</v>
+        <v>0.53764199999999995</v>
       </c>
       <c r="B74" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.4366666666666665</v>
       </c>
       <c r="C74" s="1">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="D74" s="4">
-        <v>5.8652674475405888</v>
+        <v>5.1784956045819346</v>
       </c>
       <c r="E74" s="3">
-        <v>18.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F74" s="1">
-        <v>997</v>
+        <v>941</v>
       </c>
       <c r="G74" s="1">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="H74" s="3">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>0.53757899999999992</v>
+        <v>0.54466999999999999</v>
       </c>
       <c r="B75" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C75" s="1">
-        <v>151</v>
+        <v>4.6633333333333331</v>
+      </c>
+      <c r="C75" s="2">
+        <v>226</v>
       </c>
       <c r="D75" s="4">
-        <v>5.8405136390692141</v>
+        <v>6.382869814866881</v>
       </c>
       <c r="E75" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>709</v>
+      </c>
+      <c r="G75" s="1">
+        <v>300</v>
+      </c>
+      <c r="H75" s="3">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="F75" s="1">
-        <v>607</v>
-      </c>
-      <c r="G75" s="1">
-        <v>260</v>
-      </c>
-      <c r="H75" s="3">
-        <v>5.8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>0.56462699999999988</v>
+        <v>0.55169800000000002</v>
       </c>
       <c r="B76" s="4">
-        <v>4.9666666666666668</v>
-      </c>
-      <c r="C76" s="1">
-        <v>151</v>
+        <v>4.8166666666666664</v>
+      </c>
+      <c r="C76" s="2">
+        <v>226</v>
       </c>
       <c r="D76" s="4">
-        <v>6.0254236998487363</v>
+        <v>7.0795149679288105</v>
       </c>
       <c r="E76" s="3">
-        <v>6</v>
+        <v>30.5</v>
       </c>
       <c r="F76" s="1">
-        <v>719</v>
+        <v>937</v>
       </c>
       <c r="G76" s="1">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="H76" s="3">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>0.57138899999999992</v>
+        <v>0.55786499999999994</v>
       </c>
       <c r="B77" s="4">
-        <v>5.166666666666667</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C77" s="1">
         <v>151</v>
       </c>
       <c r="D77" s="4">
-        <v>6.2256414535833455</v>
+        <v>5.8652674475405888</v>
       </c>
       <c r="E77" s="3">
-        <v>10.6</v>
+        <v>18.2</v>
       </c>
       <c r="F77" s="1">
-        <v>618</v>
+        <v>997</v>
       </c>
       <c r="G77" s="1">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="H77" s="3">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>0.56688100000000008</v>
+        <v>0.56341133333333338</v>
       </c>
       <c r="B78" s="4">
-        <v>5.1333333333333329</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C78" s="1">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="D78" s="4">
-        <v>6.1533763575089182</v>
+        <v>5.8294697528730985</v>
       </c>
       <c r="E78" s="3">
-        <v>12.8</v>
+        <v>31.3</v>
       </c>
       <c r="F78" s="1">
-        <v>646</v>
+        <v>1169</v>
       </c>
       <c r="G78" s="1">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="H78" s="3">
-        <v>4.0999999999999996</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>0.41698999999999997</v>
+        <v>0.5635</v>
       </c>
       <c r="B79" s="4">
-        <v>4.6333333333333337</v>
-      </c>
-      <c r="C79" s="1">
-        <v>176</v>
+        <v>4.5</v>
+      </c>
+      <c r="C79" s="2">
+        <v>186</v>
       </c>
       <c r="D79" s="4">
-        <v>4.4461836160069748</v>
+        <v>6.9213558530835861</v>
       </c>
       <c r="E79" s="3">
-        <v>9.1999999999999993</v>
+        <v>10.9</v>
       </c>
       <c r="F79" s="1">
-        <v>801</v>
+        <v>2417</v>
       </c>
       <c r="G79" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H79" s="3">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>0.41924400000000001</v>
+        <v>0.56462699999999988</v>
       </c>
       <c r="B80" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.9666666666666668</v>
       </c>
       <c r="C80" s="1">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="D80" s="4">
-        <v>4.3456718218035046</v>
+        <v>6.0254236998487363</v>
       </c>
       <c r="E80" s="3">
-        <v>19.600000000000001</v>
+        <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>536</v>
+        <v>719</v>
       </c>
       <c r="G80" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="H80" s="3">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>0.40572000000000003</v>
+        <v>0.56575399999999998</v>
       </c>
       <c r="B81" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C81" s="1">
-        <v>176</v>
+        <v>4.5533333333333337</v>
+      </c>
+      <c r="C81" s="2">
+        <v>214</v>
       </c>
       <c r="D81" s="4">
-        <v>4.2388426143703484</v>
+        <v>7.3676910426510851</v>
       </c>
       <c r="E81" s="3">
-        <v>22.3</v>
+        <v>34</v>
       </c>
       <c r="F81" s="1">
-        <v>496</v>
+        <v>763</v>
       </c>
       <c r="G81" s="1">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="H81" s="3">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>0.42600600000000005</v>
+        <v>0.56575400000000009</v>
       </c>
       <c r="B82" s="4">
-        <v>4.7333333333333334</v>
-      </c>
-      <c r="C82" s="1">
-        <v>176</v>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C82" s="2">
+        <v>188</v>
       </c>
       <c r="D82" s="4">
-        <v>4.6777415445999448</v>
+        <v>6.6966731121574119</v>
       </c>
       <c r="E82" s="3">
-        <v>16.3</v>
+        <v>23.1</v>
       </c>
       <c r="F82" s="1">
-        <v>492</v>
+        <v>636</v>
       </c>
       <c r="G82" s="1">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="H82" s="3">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>0.41248200000000002</v>
+        <v>0.56688100000000008</v>
       </c>
       <c r="B83" s="4">
-        <v>4.5999999999999996</v>
+        <v>5.1333333333333329</v>
       </c>
       <c r="C83" s="1">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="D83" s="4">
-        <v>4.2128251682311362</v>
+        <v>6.1533763575089182</v>
       </c>
       <c r="E83" s="3">
-        <v>20.7</v>
+        <v>12.8</v>
       </c>
       <c r="F83" s="1">
-        <v>488</v>
+        <v>646</v>
       </c>
       <c r="G83" s="1">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="H83" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>1.3997339999999998</v>
+        <v>0.57026200000000005</v>
       </c>
       <c r="B84" s="4">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C84" s="1">
-        <v>580</v>
+        <v>225</v>
       </c>
       <c r="D84" s="4">
-        <v>14.960840844776948</v>
+        <v>6.4736790119552001</v>
       </c>
       <c r="E84" s="3">
-        <v>12.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F84" s="1">
-        <v>356</v>
+        <v>733</v>
       </c>
       <c r="G84" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H84" s="3">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>1.05938</v>
+        <v>0.57026200000000005</v>
       </c>
       <c r="B85" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C85" s="1">
-        <v>614</v>
+        <v>4.8</v>
+      </c>
+      <c r="C85" s="2">
+        <v>238</v>
       </c>
       <c r="D85" s="4">
-        <v>11.492295523779831</v>
+        <v>6.7565874106853299</v>
       </c>
       <c r="E85" s="3">
-        <v>18.8</v>
+        <v>3.3</v>
       </c>
       <c r="F85" s="1">
-        <v>308</v>
+        <v>491</v>
       </c>
       <c r="G85" s="1">
         <v>110</v>
       </c>
       <c r="H85" s="3">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>1.338876</v>
+        <v>0.57138899999999992</v>
       </c>
       <c r="B86" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C86" s="1">
-        <v>585</v>
+        <v>151</v>
       </c>
       <c r="D86" s="4">
-        <v>14.096745005260949</v>
+        <v>6.2256414535833455</v>
       </c>
       <c r="E86" s="3">
-        <v>14.7</v>
+        <v>10.6</v>
       </c>
       <c r="F86" s="1">
-        <v>335</v>
+        <v>618</v>
       </c>
       <c r="G86" s="1">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="H86" s="3">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>1.2577320000000001</v>
+        <v>0.57477</v>
       </c>
       <c r="B87" s="4">
-        <v>5.2666666666666666</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="C87" s="1">
-        <v>584</v>
+        <v>201</v>
       </c>
       <c r="D87" s="4">
-        <v>13.546736970816424</v>
+        <v>6.7423249779433032</v>
       </c>
       <c r="E87" s="3">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="F87" s="1">
-        <v>306</v>
+        <v>874</v>
       </c>
       <c r="G87" s="1">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="H87" s="3">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>1.1360159999999999</v>
+        <v>0.57512466666666662</v>
       </c>
       <c r="B88" s="4">
-        <v>4.7666666666666666</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C88" s="1">
-        <v>625</v>
+        <v>226</v>
       </c>
       <c r="D88" s="4">
-        <v>11.616946609872979</v>
+        <v>6.538026336402079</v>
       </c>
       <c r="E88" s="3">
-        <v>22</v>
+        <v>27.5</v>
       </c>
       <c r="F88" s="1">
-        <v>635</v>
+        <v>1157</v>
       </c>
       <c r="G88" s="1">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="H88" s="3">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>0.71001000000000003</v>
+        <v>0.58604000000000001</v>
       </c>
       <c r="B89" s="4">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C89" s="1">
-        <v>682</v>
+        <v>252</v>
       </c>
       <c r="D89" s="4">
-        <v>8.4432684537453149</v>
+        <v>6.2813140621961896</v>
       </c>
       <c r="E89" s="3">
-        <v>26.9</v>
+        <v>12.2</v>
       </c>
       <c r="F89" s="1">
-        <v>646</v>
+        <v>753</v>
       </c>
       <c r="G89" s="1">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="H89" s="3">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>1.1675720000000001</v>
+        <v>0.58604000000000001</v>
       </c>
       <c r="B90" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C90" s="1">
-        <v>513</v>
+        <v>4.7</v>
+      </c>
+      <c r="C90" s="2">
+        <v>226</v>
       </c>
       <c r="D90" s="4">
-        <v>11.850003318004321</v>
+        <v>7.1260347137579689</v>
       </c>
       <c r="E90" s="3">
-        <v>46</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F90" s="1">
-        <v>646</v>
+        <v>806</v>
       </c>
       <c r="G90" s="1">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="H90" s="3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>1.0413479999999999</v>
+        <v>0.58604000000000012</v>
       </c>
       <c r="B91" s="4">
-        <v>5.2666666666666666</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C91" s="1">
-        <v>564</v>
+        <v>201</v>
       </c>
       <c r="D91" s="4">
-        <v>11.433464101751966</v>
+        <v>7.2786250567650583</v>
       </c>
       <c r="E91" s="3">
-        <v>31.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F91" s="1">
-        <v>663</v>
+        <v>789</v>
       </c>
       <c r="G91" s="1">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="H91" s="3">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>0.25921</v>
+        <v>0.59731000000000012</v>
       </c>
       <c r="B92" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C92" s="1">
-        <v>50</v>
+        <v>4.8</v>
+      </c>
+      <c r="C92" s="2">
+        <v>227</v>
       </c>
       <c r="D92" s="4">
-        <v>3.8134016974563636</v>
+        <v>6.8147145581941082</v>
       </c>
       <c r="E92" s="3">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="F92" s="1">
-        <v>416</v>
+        <v>2302</v>
       </c>
       <c r="G92" s="1">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="H92" s="3">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>0.26146399999999997</v>
+        <v>0.60557933333333336</v>
       </c>
       <c r="B93" s="4">
-        <v>5.0999999999999996</v>
+        <v>4.5633333333333335</v>
       </c>
       <c r="C93" s="1">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="D93" s="4">
-        <v>3.6583500170409295</v>
+        <v>6.6966731121574119</v>
       </c>
       <c r="E93" s="3">
-        <v>13.1</v>
+        <v>31.8</v>
       </c>
       <c r="F93" s="1">
-        <v>456</v>
+        <v>1244</v>
       </c>
       <c r="G93" s="1">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="H93" s="3">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>0.26822600000000002</v>
+        <v>0.63369133333333327</v>
       </c>
       <c r="B94" s="4">
-        <v>5.4000000000000012</v>
-      </c>
-      <c r="C94" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="C94" s="2">
         <v>201</v>
       </c>
       <c r="D94" s="4">
-        <v>3.9332421296280726</v>
+        <v>8.3378033116358274</v>
       </c>
       <c r="E94" s="3">
-        <v>13.3</v>
+        <v>29.9</v>
       </c>
       <c r="F94" s="1">
-        <v>452</v>
+        <v>741</v>
       </c>
       <c r="G94" s="1">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="H94" s="3">
-        <v>2.2999999999999998</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>0.25695600000000002</v>
+        <v>0.65946066666666681</v>
       </c>
       <c r="B95" s="4">
-        <v>5.0766666666666662</v>
+        <v>4.7166666666666668</v>
       </c>
       <c r="C95" s="1">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="D95" s="4">
-        <v>3.9532089917349982</v>
+        <v>7.0721012405086041</v>
       </c>
       <c r="E95" s="3">
-        <v>9.8000000000000007</v>
+        <v>35.4</v>
       </c>
       <c r="F95" s="1">
-        <v>472</v>
+        <v>1390</v>
       </c>
       <c r="G95" s="1">
-        <v>170</v>
+        <v>480</v>
       </c>
       <c r="H95" s="3">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>0.21413000000000001</v>
+        <v>0.71001000000000003</v>
       </c>
       <c r="B96" s="4">
-        <v>5.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="C96" s="1">
-        <v>75</v>
+        <v>682</v>
       </c>
       <c r="D96" s="4">
-        <v>3.1683435924377137</v>
+        <v>8.4432684537453149</v>
       </c>
       <c r="E96" s="3">
-        <v>5.7</v>
+        <v>26.9</v>
       </c>
       <c r="F96" s="1">
-        <v>523</v>
+        <v>646</v>
       </c>
       <c r="G96" s="1">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="H96" s="3">
         <v>2.9</v>
@@ -2925,603 +2925,606 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>0.23441600000000004</v>
+        <v>0.83516066666666655</v>
       </c>
       <c r="B97" s="4">
-        <v>5.0999999999999996</v>
+        <v>4.543333333333333</v>
       </c>
       <c r="C97" s="1">
-        <v>75</v>
+        <v>678</v>
       </c>
       <c r="D97" s="4">
-        <v>2.6432010199544451</v>
+        <v>10.15224478076985</v>
       </c>
       <c r="E97" s="3">
-        <v>8.1999999999999993</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="G97" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="H97" s="3">
-        <v>4.9000000000000004</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>0.229908</v>
+        <v>0.92652466666666655</v>
       </c>
       <c r="B98" s="4">
-        <v>5.2</v>
+        <v>4.1366666666666667</v>
       </c>
       <c r="C98" s="1">
-        <v>88</v>
+        <v>577</v>
       </c>
       <c r="D98" s="4">
-        <v>2.6795282987355673</v>
+        <v>9.9869503608176267</v>
       </c>
       <c r="E98" s="3">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F98" s="1">
-        <v>665</v>
+        <v>827</v>
       </c>
       <c r="G98" s="1">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="H98" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>0.23216200000000001</v>
+        <v>0.93120999999999976</v>
       </c>
       <c r="B99" s="4">
-        <v>5</v>
+        <v>4.1866666666666674</v>
       </c>
       <c r="C99" s="1">
-        <v>75</v>
+        <v>552</v>
       </c>
       <c r="D99" s="4">
-        <v>3.1280247721297187</v>
+        <v>10.258430029037267</v>
       </c>
       <c r="E99" s="3">
-        <v>6.8</v>
+        <v>47.6</v>
       </c>
       <c r="F99" s="1">
-        <v>543</v>
+        <v>1192</v>
       </c>
       <c r="G99" s="1">
-        <v>120</v>
+        <v>760</v>
       </c>
       <c r="H99" s="3">
-        <v>3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>0.39783099999999999</v>
+        <v>0.93120999999999998</v>
       </c>
       <c r="B100" s="4">
-        <v>4.7233333333333336</v>
+        <v>4.1566666666666663</v>
       </c>
       <c r="C100" s="1">
-        <v>150</v>
+        <v>552</v>
       </c>
       <c r="D100" s="4">
-        <v>4.2940839191493172</v>
+        <v>9.3860378875772135</v>
       </c>
       <c r="E100" s="3">
-        <v>0.8</v>
+        <v>16.3</v>
       </c>
       <c r="F100" s="1">
-        <v>448</v>
+        <v>1026</v>
       </c>
       <c r="G100" s="1">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="H100" s="3">
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>0.40459299999999998</v>
+        <v>0.96166466666666661</v>
       </c>
       <c r="B101" s="4">
-        <v>4.7233333333333336</v>
+        <v>4.126666666666666</v>
       </c>
       <c r="C101" s="1">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="D101" s="4">
-        <v>4.1774626638975114</v>
+        <v>10.051294438180488</v>
       </c>
       <c r="E101" s="3">
-        <v>6.5</v>
+        <v>28.8</v>
       </c>
       <c r="F101" s="1">
-        <v>491</v>
+        <v>1049</v>
       </c>
       <c r="G101" s="1">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="H101" s="3">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>0.41135499999999997</v>
+        <v>0.99680466666666667</v>
       </c>
       <c r="B102" s="4">
-        <v>4.8099999999999996</v>
+        <v>4.4633333333333338</v>
       </c>
       <c r="C102" s="1">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="D102" s="4">
-        <v>4.1629075885391131</v>
+        <v>13.387587480490225</v>
       </c>
       <c r="E102" s="3">
-        <v>6.8</v>
+        <v>41.9</v>
       </c>
       <c r="F102" s="1">
-        <v>450</v>
+        <v>1190</v>
       </c>
       <c r="G102" s="1">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="H102" s="3">
-        <v>6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>0.43614900000000006</v>
+        <v>1.0225739999999999</v>
       </c>
       <c r="B103" s="4">
-        <v>4.8133333333333335</v>
+        <v>4.376666666666666</v>
       </c>
       <c r="C103" s="1">
-        <v>176</v>
+        <v>489</v>
       </c>
       <c r="D103" s="4">
-        <v>4.6832691472218055</v>
+        <v>13.386275943289942</v>
       </c>
       <c r="E103" s="3">
-        <v>0.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="F103" s="1">
-        <v>437</v>
+        <v>1365</v>
       </c>
       <c r="G103" s="1">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="H103" s="3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>0.41135499999999997</v>
+        <v>1.0413479999999999</v>
       </c>
       <c r="B104" s="4">
-        <v>4.66</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="C104" s="1">
-        <v>151</v>
+        <v>564</v>
       </c>
       <c r="D104" s="4">
-        <v>3.9335168592702159</v>
+        <v>11.433464101751966</v>
       </c>
       <c r="E104" s="3">
-        <v>24.5</v>
+        <v>31.6</v>
       </c>
       <c r="F104" s="1">
-        <v>941</v>
+        <v>663</v>
       </c>
       <c r="G104" s="1">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H104" s="3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>0.35275100000000004</v>
+        <v>1.0553713333333332</v>
       </c>
       <c r="B105" s="4">
-        <v>4.09</v>
+        <v>4.5533333333333337</v>
       </c>
       <c r="C105" s="1">
-        <v>201</v>
+        <v>477</v>
       </c>
       <c r="D105" s="4">
-        <v>3.6677797590544401</v>
+        <v>13.830054190569221</v>
       </c>
       <c r="E105" s="3">
-        <v>23.7</v>
+        <v>55.8</v>
       </c>
       <c r="F105" s="1">
-        <v>835</v>
+        <v>1409</v>
       </c>
       <c r="G105" s="1">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="H105" s="3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>0.33697299999999997</v>
+        <v>1.057714</v>
       </c>
       <c r="B106" s="4">
-        <v>4.0066666666666668</v>
+        <v>4.496666666666667</v>
       </c>
       <c r="C106" s="1">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="D106" s="4">
-        <v>3.3666583381849127</v>
+        <v>12.820459322502467</v>
       </c>
       <c r="E106" s="3">
-        <v>21.2</v>
+        <v>53.9</v>
       </c>
       <c r="F106" s="1">
-        <v>861</v>
+        <v>1294</v>
       </c>
       <c r="G106" s="1">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="H106" s="3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>0.35275100000000004</v>
+        <v>1.05938</v>
       </c>
       <c r="B107" s="4">
-        <v>4.0333333333333341</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C107" s="1">
-        <v>226</v>
+        <v>614</v>
       </c>
       <c r="D107" s="4">
-        <v>3.4997424697880781</v>
+        <v>11.492295523779831</v>
       </c>
       <c r="E107" s="3">
-        <v>20.9</v>
+        <v>18.8</v>
       </c>
       <c r="F107" s="1">
-        <v>865</v>
+        <v>308</v>
       </c>
       <c r="G107" s="1">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="H107" s="3">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>0.36176700000000001</v>
+        <v>1.085826</v>
       </c>
       <c r="B108" s="4">
-        <v>4.0500000000000007</v>
+        <v>4.5366666666666662</v>
       </c>
       <c r="C108" s="1">
-        <v>226</v>
+        <v>602</v>
       </c>
       <c r="D108" s="4">
-        <v>3.8120669457076009</v>
+        <v>11.643339881761023</v>
       </c>
       <c r="E108" s="3">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="F108" s="1">
-        <v>622</v>
+        <v>669</v>
       </c>
       <c r="G108" s="1">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="H108" s="3">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>0.31443299999999996</v>
+        <v>1.1022246666666666</v>
       </c>
       <c r="B109" s="4">
-        <v>3.936666666666667</v>
+        <v>4.6866666666666665</v>
       </c>
       <c r="C109" s="1">
-        <v>201</v>
+        <v>628</v>
       </c>
       <c r="D109" s="4">
-        <v>2.9194434517005927</v>
+        <v>12.946542754233196</v>
       </c>
       <c r="E109" s="3">
-        <v>8.1999999999999993</v>
+        <v>32.6</v>
       </c>
       <c r="F109" s="1">
-        <v>648</v>
+        <v>983</v>
       </c>
       <c r="G109" s="1">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="H109" s="3">
-        <v>6.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>0.39783099999999999</v>
+        <v>1.1233086666666665</v>
       </c>
       <c r="B110" s="4">
-        <v>5.1466666666666665</v>
+        <v>5.1533333333333333</v>
       </c>
       <c r="C110" s="1">
-        <v>151</v>
+        <v>552</v>
       </c>
       <c r="D110" s="4">
-        <v>4.4922547347190411</v>
+        <v>12.922171124892035</v>
       </c>
       <c r="E110" s="3">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="F110" s="1">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="G110" s="1">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="H110" s="3">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>0.36627500000000007</v>
+        <v>1.1360159999999999</v>
       </c>
       <c r="B111" s="4">
-        <v>5.2566666666666668</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="C111" s="1">
-        <v>151</v>
+        <v>625</v>
       </c>
       <c r="D111" s="4">
-        <v>4.0733224034098416</v>
+        <v>11.616946609872979</v>
       </c>
       <c r="E111" s="3">
-        <v>9.1999999999999993</v>
+        <v>22</v>
       </c>
       <c r="F111" s="1">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="G111" s="1">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H111" s="3">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>0.40008499999999997</v>
+        <v>1.1675720000000001</v>
       </c>
       <c r="B112" s="4">
-        <v>5.28</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C112" s="1">
-        <v>150</v>
+        <v>513</v>
       </c>
       <c r="D112" s="4">
-        <v>4.9115143277923288</v>
+        <v>11.850003318004321</v>
       </c>
       <c r="E112" s="3">
-        <v>20.100000000000001</v>
+        <v>46</v>
       </c>
       <c r="F112" s="1">
-        <v>1069</v>
+        <v>646</v>
       </c>
       <c r="G112" s="1">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="H112" s="3">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>0.36627499999999996</v>
+        <v>1.2053020000000001</v>
       </c>
       <c r="B113" s="4">
-        <v>5.1833333333333336</v>
+        <v>5.0866666666666669</v>
       </c>
       <c r="C113" s="1">
-        <v>151</v>
+        <v>502</v>
       </c>
       <c r="D113" s="4">
-        <v>4.5343223006018079</v>
+        <v>12.434811840679659</v>
       </c>
       <c r="E113" s="3">
-        <v>15.8</v>
+        <v>20.9</v>
       </c>
       <c r="F113" s="1">
-        <v>957</v>
+        <v>754</v>
       </c>
       <c r="G113" s="1">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="H113" s="3">
-        <v>3.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>0.39332300000000003</v>
+        <v>1.2577320000000001</v>
       </c>
       <c r="B114" s="4">
-        <v>5.1866666666666665</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="C114" s="1">
-        <v>151</v>
+        <v>584</v>
       </c>
       <c r="D114" s="4">
-        <v>4.6094011590080424</v>
+        <v>13.546736970816424</v>
       </c>
       <c r="E114" s="3">
-        <v>30.5</v>
+        <v>9</v>
       </c>
       <c r="F114" s="1">
-        <v>1009</v>
+        <v>306</v>
       </c>
       <c r="G114" s="1">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="H114" s="3">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>0.316687</v>
+        <v>1.324778</v>
       </c>
       <c r="B115" s="4">
-        <v>4.55</v>
+        <v>5.336666666666666</v>
       </c>
       <c r="C115" s="1">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="D115" s="4">
-        <v>3.6347142343919931</v>
+        <v>14.961996938689666</v>
       </c>
       <c r="E115" s="3">
-        <v>28.6</v>
+        <v>14.7</v>
       </c>
       <c r="F115" s="1">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="G115" s="1">
-        <v>510</v>
+        <v>90</v>
       </c>
       <c r="H115" s="3">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>0.327957</v>
+        <v>1.3271206666666664</v>
       </c>
       <c r="B116" s="4">
-        <v>4.5566666666666666</v>
+        <v>5.31</v>
       </c>
       <c r="C116" s="1">
-        <v>201</v>
+        <v>553</v>
       </c>
       <c r="D116" s="4">
-        <v>3.2154890731204304</v>
+        <v>14.555210526864094</v>
       </c>
       <c r="E116" s="3">
-        <v>16.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="F116" s="1">
-        <v>821</v>
+        <v>1010</v>
       </c>
       <c r="G116" s="1">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="H116" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>0.31217899999999998</v>
+        <v>1.338876</v>
       </c>
       <c r="B117" s="4">
-        <v>4.2166666666666659</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C117" s="1">
-        <v>201</v>
+        <v>585</v>
       </c>
       <c r="D117" s="4">
-        <v>2.6831352383493119</v>
+        <v>14.096745005260949</v>
       </c>
       <c r="E117" s="3">
-        <v>11.4</v>
+        <v>14.7</v>
       </c>
       <c r="F117" s="1">
-        <v>502</v>
+        <v>335</v>
       </c>
       <c r="G117" s="1">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="H117" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>0.30767099999999997</v>
+        <v>1.3997339999999998</v>
       </c>
       <c r="B118" s="4">
-        <v>4.1133333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="C118" s="1">
-        <v>176</v>
+        <v>580</v>
       </c>
       <c r="D118" s="4">
-        <v>3.5389294528939432</v>
+        <v>14.960840844776948</v>
       </c>
       <c r="E118" s="3">
-        <v>23.9</v>
+        <v>12.2</v>
       </c>
       <c r="F118" s="1">
-        <v>927</v>
+        <v>356</v>
       </c>
       <c r="G118" s="1">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="H118" s="3">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>0.30541699999999999</v>
+        <v>1.4700233333333335</v>
       </c>
       <c r="B119" s="4">
-        <v>4.3166666666666664</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="C119" s="1">
-        <v>201</v>
+        <v>553</v>
       </c>
       <c r="D119" s="4">
-        <v>3.3169211717422638</v>
+        <v>15.618773073473777</v>
       </c>
       <c r="E119" s="3">
-        <v>23.9</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F119" s="1">
-        <v>907</v>
+        <v>984</v>
       </c>
       <c r="G119" s="1">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="H119" s="3">
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
+    <sortCondition ref="A2:A119"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
